--- a/csv/xlsx/LinkedList.xlsx
+++ b/csv/xlsx/LinkedList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guozn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GZN\HIT\个人文件\2020春软件构造\2020Labs\LIST\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECD32FC4-0A4A-4AC6-A72E-3475114BE357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80138289-D303-442F-BF55-20E26FDB8062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2796" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="LinkedList" sheetId="1" r:id="rId1"/>
@@ -977,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,42 +993,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.879</v>
+        <v>1.865</v>
       </c>
       <c r="B2">
-        <v>0.81100000000000005</v>
+        <v>2.101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.84399999999999997</v>
+        <v>1.883</v>
       </c>
       <c r="B3">
-        <v>0.876</v>
+        <v>1.929</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.93600000000000005</v>
+        <v>1.9</v>
       </c>
       <c r="B4">
-        <v>0.89100000000000001</v>
+        <v>1.9410000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.88300000000000001</v>
+        <v>1.843</v>
       </c>
       <c r="B5">
-        <v>0.85599999999999998</v>
+        <v>1.903</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.86399999999999999</v>
+        <v>1.89</v>
       </c>
       <c r="B6">
-        <v>0.83799999999999997</v>
+        <v>1.897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.835</v>
+      </c>
+      <c r="B7">
+        <v>1.921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.841</v>
+      </c>
+      <c r="B8">
+        <v>1.8460000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="B9">
+        <v>1.9019999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="B10">
+        <v>1.859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="B11">
+        <v>1.827</v>
       </c>
     </row>
   </sheetData>
